--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BCDDC8D5-1FD2-4EAE-89AA-9DAA93D598DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0692D43C-FFC2-4701-A8B4-A19D4EB9E615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -44,36 +44,6 @@
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>#ReqInfo</t>
-  </si>
-  <si>
-    <t>reqInfo</t>
-  </si>
-  <si>
-    <t>ReqInfo</t>
-  </si>
-  <si>
-    <t>Seq</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>resInfo</t>
-  </si>
-  <si>
-    <t>ResInfo</t>
-  </si>
-  <si>
-    <t>ResultCode</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>ResultMsg</t>
   </si>
   <si>
     <t>string</t>
@@ -1067,13 +1037,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1107,91 +1080,120 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -1205,41 +1207,42 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1247,7 +1250,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
@@ -1256,132 +1259,19 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24">
         <v>2</v>
       </c>
     </row>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeogyoungWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0692D43C-FFC2-4701-A8B4-A19D4EB9E615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592DF5DD-83FC-4111-92D8-FD0B65330AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -85,9 +85,6 @@
     <t>GameEnterReq</t>
   </si>
   <si>
-    <t>game/enter</t>
-  </si>
-  <si>
     <t>GameEnterRes</t>
   </si>
   <si>
@@ -101,6 +98,18 @@
   </si>
   <si>
     <t>GameChangeNameRes</t>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>title/enter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1037,18 +1046,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1079,7 +1089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1121,7 +1131,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -1135,7 +1145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1164,7 +1174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1177,7 +1187,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1191,7 +1201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1203,15 +1213,15 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1219,59 +1229,76 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
+      <c r="E17">
         <v>2</v>
       </c>
     </row>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeogyoungWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592DF5DD-83FC-4111-92D8-FD0B65330AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AB75C3-CDFD-4B91-B24B-7147D10196F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="13635" yWindow="2205" windowWidth="12750" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -108,7 +108,47 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>title/enter</t>
+    <t>ChannelKey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientSecret</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountEnv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountState</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAccountState</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignInResult</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignInResultPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>game/enter</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1046,19 +1086,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1089,110 +1129,110 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1201,104 +1241,187 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="E21">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C23" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="E23">
         <v>2</v>
       </c>
     </row>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AB75C3-CDFD-4B91-B24B-7147D10196F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD2417C-64C9-4D18-9B6A-70FC44E0259B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13635" yWindow="2205" windowWidth="12750" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="705" yWindow="975" windowWidth="13785" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
+    <sheet name="Obj" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="80">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -149,6 +150,170 @@
   </si>
   <si>
     <t>game/enter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthSignUpReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItemNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItemPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItemBuyReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItemBuyRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItemConstructReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItemConstructRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItemDecTimeReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItemDecTimeRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom-item/dec-time</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom-item/construct</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom-item/buy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemainSec</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashCost</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BefAmount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AftAmount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashCostPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeCash</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RealCash</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartTileY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartTileX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTileX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTileY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EObjType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostObj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChgAmount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostObjPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItemCancelReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItemCancelRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom-item/cancel</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1086,16 +1251,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J12" sqref="D10:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1425,6 +1591,655 @@
         <v>2</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECFAC6-7668-4D7C-8368-FE9C0BD686E8}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD2417C-64C9-4D18-9B6A-70FC44E0259B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B590414D-DB2B-4AB8-ACDA-87FD4A325C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="975" windowWidth="13785" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="82">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CashCostPacket</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Cash</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -314,6 +310,18 @@
   </si>
   <si>
     <t>kingdom-item/cancel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardObj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostCash</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostCashPacket</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1253,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="D10:J12"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1625,10 +1633,10 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -1666,10 +1674,10 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1709,7 +1717,7 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
@@ -1723,7 +1731,7 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
         <v>40</v>
@@ -1737,7 +1745,7 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
@@ -1751,7 +1759,7 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
@@ -1792,19 +1800,19 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -1821,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1831,7 +1839,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -1894,7 +1902,7 @@
         <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -1932,10 +1940,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -1949,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECFAC6-7668-4D7C-8368-FE9C0BD686E8}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1997,7 +2005,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2007,13 +2015,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2021,10 +2029,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -2035,13 +2043,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -2049,13 +2057,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2066,7 +2074,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2076,13 +2084,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2090,10 +2098,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -2104,96 +2112,96 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2204,7 +2212,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2214,10 +2222,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>58</v>
@@ -2228,15 +2236,70 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
       </c>
       <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24">
         <v>2</v>
       </c>
     </row>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B590414D-DB2B-4AB8-ACDA-87FD4A325C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DB3761-8AEA-4E42-8316-A11BBB1BB9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="106">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -165,50 +165,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>KingdomItem</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>KingdomItemPacket</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>KingdomItemBuyReq</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>KingdomItemBuyRes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>KingdomItemConstructReq</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>KingdomItemConstructRes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>KingdomItemDecTimeReq</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>KingdomItemDecTimeRes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kingdom-item/dec-time</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kingdom-item/construct</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kingdom-item/buy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>RemainSec</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -301,18 +257,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>KingdomItemCancelReq</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>KingdomItemCancelRes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kingdom-item/cancel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>RewardObj</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -322,6 +266,157 @@
   </si>
   <si>
     <t>CostCashPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomStructurePacket</t>
+  </si>
+  <si>
+    <t>KingdomStructurePacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomDecoPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomStructure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomDeco</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomConstructDecoRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomConstructDecoReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomBuyStructureRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomBuyDecoReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomBuyDecoRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomConstructStructureReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomConstructStructureRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomDecoList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomStructureList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;KingdomDecoPacket&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;KingdomStructurePacket&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom/store</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom/construct-deco</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom/construct-structure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom/buy-deco</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom/buy-structure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomStoreReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomStoreRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomDecTimeStructureReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomDecTimeStructureRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomStructureId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomStructureIdList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ulong&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomDecoItemNumList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom/dec-time-structure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;CostObjPacket&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostObjList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ObjPacket&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;PlacedKingdomItemPacket&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlacedKingdomItemList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomBuyStructureReq</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1259,20 +1354,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1303,7 +1398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1316,7 +1411,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -1330,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -1344,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -1358,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1372,7 +1467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -1386,7 +1481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1415,7 +1510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1428,7 +1523,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -1442,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1471,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1484,7 +1579,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1498,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1526,7 +1621,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>21</v>
@@ -1543,7 +1638,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1558,7 +1653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -1572,7 +1667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1585,7 +1680,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -1599,24 +1694,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>44</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -1628,26 +1723,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>44</v>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1655,52 +1750,52 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>45</v>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>45</v>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>46</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -1712,246 +1807,578 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>46</v>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>46</v>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>47</v>
+      <c r="G36" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>43</v>
+        <v>94</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>76</v>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
         <v>40</v>
       </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>77</v>
+      <c r="E40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
         <v>40</v>
       </c>
       <c r="E43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
         <v>48</v>
       </c>
-      <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48">
+      <c r="D71" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1963,13 +2390,13 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +2419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2000,12 +2427,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2013,26 +2440,26 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -2041,40 +2468,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2082,26 +2509,26 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -2110,26 +2537,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
         <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2137,26 +2564,26 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
@@ -2165,54 +2592,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2220,54 +2647,54 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2275,29 +2702,29 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>2</v>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DB3761-8AEA-4E42-8316-A11BBB1BB9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0E954-6200-4A9E-92E1-8E0A496C29A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="119">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -205,22 +205,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StartTileY</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartTileX</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndTileX</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndTileY</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>EObjType</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -245,22 +229,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ChgAmount</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>CostObjPacket</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ObjPacket</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardObj</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>CostCash</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -404,10 +376,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;ObjPacket&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;PlacedKingdomItemPacket&gt;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -417,6 +385,89 @@
   </si>
   <si>
     <t>KingdomBuyStructureReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChgObj</t>
+  </si>
+  <si>
+    <t>ChgObj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChgObjPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChgObjList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ChgObjPacket&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TilePos</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TilePosPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartTilePos</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTilePos</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>req</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlacedItemId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomChangeItemRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomChangeItemReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreKingdomItemIdList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChgKingdomItemList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChgKingdomItem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ChgKingdomItemPacket&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom/change-item</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1354,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1699,19 +1750,19 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -1725,13 +1776,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -1742,7 +1793,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1752,13 +1803,13 @@
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1766,13 +1817,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1783,19 +1834,19 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -1809,13 +1860,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1826,7 +1877,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1836,13 +1887,13 @@
     </row>
     <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1850,13 +1901,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -1867,26 +1918,26 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1896,7 +1947,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -1910,13 +1961,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -1924,13 +1975,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -1938,441 +1989,474 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="E41">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42">
-        <v>7</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E43">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56">
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="1">
-        <v>2</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
+        <v>95</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="1">
+        <v>40</v>
+      </c>
+      <c r="E62">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="1">
+        <v>40</v>
+      </c>
+      <c r="E63">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="1">
-        <v>2</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68">
-        <v>5</v>
+        <v>113</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B69" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="C69" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B71" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" t="s">
-        <v>51</v>
-      </c>
-      <c r="E71">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73">
         <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2384,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECFAC6-7668-4D7C-8368-FE9C0BD686E8}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2432,7 +2516,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2442,13 +2526,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2456,10 +2540,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -2470,13 +2554,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -2484,13 +2568,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2501,7 +2585,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2511,13 +2595,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2525,10 +2609,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -2539,13 +2623,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2556,7 +2640,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2566,13 +2650,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2580,10 +2664,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
@@ -2594,13 +2678,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -2608,13 +2692,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -2622,13 +2706,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2639,7 +2723,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2649,7 +2733,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -2663,7 +2747,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -2677,7 +2761,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
@@ -2730,6 +2814,92 @@
         <v>2</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0E954-6200-4A9E-92E1-8E0A496C29A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B3839-517B-4D77-9A21-872F8786F36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="119">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -431,10 +431,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>EndTilePos</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>req</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -468,6 +464,10 @@
   </si>
   <si>
     <t>kingdom/change-item</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TileSize</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1405,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1988,44 +1988,44 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41">
-        <v>6</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2033,42 +2033,42 @@
         <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>79</v>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2076,386 +2076,358 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
+      <c r="C53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="1">
-        <v>2</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B56" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B58" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" s="1">
-        <v>3</v>
+        <v>85</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E59" s="1">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>92</v>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" s="1">
-        <v>2</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B63" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63">
-        <v>4</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B65" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
+        <v>112</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B69" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" t="s">
-        <v>114</v>
-      </c>
-      <c r="D69" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71">
         <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B72" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B73" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B74" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" t="s">
-        <v>75</v>
-      </c>
-      <c r="E74">
         <v>4</v>
       </c>
     </row>
@@ -2468,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECFAC6-7668-4D7C-8368-FE9C0BD686E8}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2851,22 +2823,22 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2874,10 +2846,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
@@ -2887,16 +2859,52 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
       <c r="B31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
         <v>104</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D34" t="s">
         <v>107</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>3</v>
       </c>
     </row>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B3839-517B-4D77-9A21-872F8786F36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44E3F01-5471-4F2D-9B6E-1A2DFD1CED37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="6825" yWindow="1830" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="119">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -304,10 +304,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;int&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>kingdom/store</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -352,18 +348,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>KingdomStructureIdList</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;ulong&gt;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>KingdomDecoItemNumList</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>kingdom/dec-time-structure</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -468,6 +456,18 @@
   </si>
   <si>
     <t>TileSize</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomPlacedItemIdList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceKingdomItemList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StructureId</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1407,18 +1407,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1462,7 +1462,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>21</v>
@@ -1689,7 +1689,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -1745,24 +1745,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -1774,9 +1774,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
@@ -1788,7 +1788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>68</v>
       </c>
@@ -1815,21 +1815,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
         <v>98</v>
-      </c>
-      <c r="D29" t="s">
-        <v>101</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1841,10 +1841,10 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>69</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>70</v>
       </c>
@@ -1899,21 +1899,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -1925,19 +1925,19 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1945,7 +1945,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
@@ -1959,35 +1959,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E40">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
@@ -2014,35 +2014,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -2054,10 +2054,10 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>67</v>
       </c>
@@ -2071,21 +2071,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>66</v>
       </c>
@@ -2112,45 +2112,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -2158,254 +2158,254 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E56" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C57" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
       <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="1">
-        <v>2</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
         <v>40</v>
       </c>
       <c r="E60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>106</v>
+      </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65">
+        <v>109</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="C68" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B67" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D68" t="s">
         <v>113</v>
-      </c>
-      <c r="D67" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B68" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" t="s">
-        <v>116</v>
       </c>
       <c r="E68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
         <v>74</v>
@@ -2417,9 +2417,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>73</v>
@@ -2440,19 +2440,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECFAC6-7668-4D7C-8368-FE9C0BD686E8}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2483,12 +2483,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2496,9 +2496,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -2510,9 +2510,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -2524,9 +2524,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -2538,12 +2538,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -2552,7 +2552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>54</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>57</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>57</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>59</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>59</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>59</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2758,7 +2758,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>48</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>48</v>
       </c>
@@ -2786,20 +2786,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
@@ -2808,12 +2808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
@@ -2822,20 +2822,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
@@ -2844,12 +2844,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
@@ -2858,54 +2858,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
         <v>56</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>40</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
       </c>
       <c r="E34">
         <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44E3F01-5471-4F2D-9B6E-1A2DFD1CED37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C039637-E384-45CD-B7F7-0EB23A936998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="1830" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="6825" yWindow="1830" windowWidth="21600" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="125">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -468,6 +468,30 @@
   </si>
   <si>
     <t>StructureId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomFinishConstructStructureRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomFinishCraftStructureRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomFinishConstructStructureReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomFinishCraftStructureReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom/finish-craft-structure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kingdom/finish-construct-structure</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1405,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2431,6 +2455,166 @@
         <v>4</v>
       </c>
     </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2442,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECFAC6-7668-4D7C-8368-FE9C0BD686E8}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C039637-E384-45CD-B7F7-0EB23A936998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA53B3A-2E80-46F8-B782-BD1D760182D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="1830" windowWidth="21600" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="6825" yWindow="1830" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="124">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -182,10 +182,6 @@
   </si>
   <si>
     <t>Amount</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1431,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1774,19 +1770,19 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -1800,13 +1796,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
         <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -1817,7 +1813,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1827,13 +1823,13 @@
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1841,13 +1837,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1858,19 +1854,19 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -1884,13 +1880,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
         <v>57</v>
-      </c>
-      <c r="D32" t="s">
-        <v>58</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1901,7 +1897,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1911,13 +1907,13 @@
     </row>
     <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1925,13 +1921,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -1942,26 +1938,26 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1971,7 +1967,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -1985,13 +1981,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -1999,13 +1995,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2016,7 +2012,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2026,13 +2022,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2040,13 +2036,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -2054,13 +2050,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
         <v>99</v>
-      </c>
-      <c r="D44" t="s">
-        <v>100</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -2071,19 +2067,19 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>41</v>
@@ -2097,13 +2093,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2114,7 +2110,7 @@
         <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2124,13 +2120,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -2138,13 +2134,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -2155,26 +2151,26 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -2187,7 +2183,7 @@
         <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2197,13 +2193,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2211,13 +2207,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
@@ -2225,13 +2221,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>4</v>
@@ -2242,26 +2238,26 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
@@ -2271,7 +2267,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
         <v>41</v>
@@ -2285,7 +2281,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
         <v>42</v>
@@ -2299,13 +2295,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -2316,7 +2312,7 @@
         <v>13</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2326,13 +2322,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -2340,13 +2336,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -2354,24 +2350,24 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
         <v>109</v>
       </c>
-      <c r="C66" t="s">
-        <v>110</v>
-      </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -2379,13 +2375,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -2393,13 +2389,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -2410,18 +2406,18 @@
         <v>13</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2429,13 +2425,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -2443,13 +2439,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E72">
         <v>4</v>
@@ -2460,26 +2456,26 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E74" s="1">
         <v>2</v>
@@ -2489,7 +2485,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
         <v>41</v>
@@ -2506,7 +2502,7 @@
         <v>13</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2516,13 +2512,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -2533,26 +2529,26 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E79" s="1">
         <v>2</v>
@@ -2562,7 +2558,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
         <v>41</v>
@@ -2579,7 +2575,7 @@
         <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2589,13 +2585,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2603,13 +2599,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" t="s">
         <v>99</v>
-      </c>
-      <c r="D83" t="s">
-        <v>100</v>
       </c>
       <c r="E83" s="1">
         <v>3</v>
@@ -2626,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECFAC6-7668-4D7C-8368-FE9C0BD686E8}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2672,7 +2668,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2682,13 +2678,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2696,10 +2692,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -2710,13 +2706,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -2724,13 +2720,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
         <v>96</v>
       </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2741,7 +2737,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2751,13 +2747,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2765,10 +2761,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -2779,13 +2775,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2796,7 +2792,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2806,13 +2802,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2820,10 +2816,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
@@ -2834,13 +2830,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -2848,13 +2844,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -2862,13 +2858,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2879,7 +2875,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2889,13 +2885,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2903,13 +2899,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -2917,13 +2913,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -2934,7 +2930,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2944,13 +2940,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2958,13 +2954,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -2975,15 +2971,15 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
         <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
@@ -2994,10 +2990,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
@@ -3011,15 +3007,15 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
@@ -3030,10 +3026,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
@@ -3047,18 +3043,18 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3066,13 +3062,13 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -3080,10 +3076,10 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
@@ -3094,13 +3090,13 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35">
         <v>4</v>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA53B3A-2E80-46F8-B782-BD1D760182D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB794F95-B6C8-4BD4-9E24-A629AC36C4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="1830" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="1980" yWindow="4185" windowWidth="21570" windowHeight="11295" activeTab="1" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -2622,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECFAC6-7668-4D7C-8368-FE9C0BD686E8}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2853,7 +2853,7 @@
         <v>52</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2867,7 +2867,7 @@
         <v>52</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB794F95-B6C8-4BD4-9E24-A629AC36C4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC546BC-CB1C-4B72-8884-B48418E99905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="4185" windowWidth="21570" windowHeight="11295" activeTab="1" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="131">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -488,6 +488,34 @@
   </si>
   <si>
     <t>kingdom/finish-construct-structure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Cheat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Kingdom</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheatRewardReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheatRewardRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ObjPacket&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheat/reward</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1063,11 +1091,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1425,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1504,7 @@
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="1"/>
@@ -1693,21 +1724,18 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="E19">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1766,633 +1794,623 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>40</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>56</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>57</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
         <v>63</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>61</v>
       </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>94</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>97</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>56</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>57</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>64</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>62</v>
       </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>95</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>97</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" t="s">
         <v>86</v>
       </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>41</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>40</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>70</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>90</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>89</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>70</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>104</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>103</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
         <v>63</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>61</v>
       </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>92</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>91</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>98</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>99</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
         <v>41</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>40</v>
       </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>66</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>104</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>103</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
         <v>64</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>62</v>
       </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>65</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>92</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>91</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
         <v>115</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="1">
-        <v>2</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
         <v>73</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>75</v>
       </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" t="s">
         <v>72</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E56">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>82</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>92</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E57">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="1">
-        <v>2</v>
-      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
         <v>41</v>
-      </c>
-      <c r="D59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" t="s">
-        <v>42</v>
       </c>
       <c r="D60" t="s">
         <v>40</v>
       </c>
       <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>83</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>43</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>59</v>
       </c>
-      <c r="E61">
+      <c r="E62">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" t="s">
         <v>63</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>60</v>
       </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>84</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>47</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>50</v>
       </c>
-      <c r="E64">
+      <c r="E65">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" t="s">
         <v>109</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>87</v>
       </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>108</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>110</v>
-      </c>
-      <c r="D67" t="s">
-        <v>112</v>
-      </c>
-      <c r="E67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" t="s">
-        <v>116</v>
       </c>
       <c r="D68" t="s">
         <v>112</v>
@@ -2402,213 +2420,293 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
         <v>92</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>91</v>
       </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>107</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>73</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>75</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" t="s">
         <v>72</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>74</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" t="s">
         <v>86</v>
       </c>
-      <c r="E74" s="1">
-        <v>2</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>120</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>41</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>40</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" t="s">
         <v>63</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>60</v>
       </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="s">
         <v>85</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" t="s">
         <v>86</v>
       </c>
-      <c r="E79" s="1">
-        <v>2</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>121</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>41</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>40</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
         <v>63</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>60</v>
       </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>119</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>98</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>99</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E84">
         <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2622,7 +2720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECFAC6-7668-4D7C-8368-FE9C0BD686E8}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC546BC-CB1C-4B72-8884-B48418E99905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0703ED49-5574-4BA6-A687-C33A22104BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="160">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -516,6 +516,122 @@
   </si>
   <si>
     <t>cheat/reward</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Cookie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CookieEnhanceStarReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CookieEnhanceStarRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CookiePacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie/enhance-star</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie/enhance-lv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CookieEnhanceLvReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CookieEnhanceLvRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CookieNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BefStar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AftStar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BefLv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AftLv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaNormalReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaNormalRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cnt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaResultChgObjList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostChgObj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Schedule</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleLoadReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleLoadRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;SchedulePacket&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;EScheduleType&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule/load</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gacha/normal</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1456,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2644,7 +2760,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2658,54 +2774,474 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D87" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="B88" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" t="s">
+        <v>57</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C100" t="s">
+        <v>134</v>
+      </c>
+      <c r="D100" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" t="s">
+        <v>148</v>
+      </c>
+      <c r="D105" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" t="s">
+        <v>57</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" t="s">
+        <v>134</v>
+      </c>
+      <c r="D108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109" t="s">
+        <v>99</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" t="s">
+        <v>150</v>
+      </c>
+      <c r="D110" t="s">
+        <v>97</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" t="s">
         <v>98</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D115" t="s">
         <v>99</v>
       </c>
-      <c r="E89">
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D118" t="s">
+        <v>157</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" t="s">
+        <v>155</v>
+      </c>
+      <c r="E120">
         <v>2</v>
       </c>
     </row>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0703ED49-5574-4BA6-A687-C33A22104BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ACCDC0-2911-457F-B1E7-F336290F0CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="160">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -1572,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3069,15 +3069,15 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>146</v>
       </c>
       <c r="C108" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D108" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -3088,160 +3088,146 @@
         <v>146</v>
       </c>
       <c r="C109" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E109">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" t="s">
-        <v>150</v>
-      </c>
-      <c r="D110" t="s">
-        <v>97</v>
-      </c>
-      <c r="E110">
-        <v>4</v>
-      </c>
+      <c r="A110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
+      <c r="A111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="B112" t="s">
+        <v>126</v>
+      </c>
+      <c r="C112" t="s">
+        <v>128</v>
+      </c>
+      <c r="D112" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" t="s">
+        <v>99</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>126</v>
-      </c>
-      <c r="C113" t="s">
-        <v>128</v>
-      </c>
-      <c r="D113" t="s">
-        <v>129</v>
-      </c>
-      <c r="E113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>152</v>
+      </c>
+      <c r="C117" t="s">
+        <v>156</v>
+      </c>
+      <c r="D117" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" t="s">
-        <v>98</v>
-      </c>
-      <c r="D115" t="s">
-        <v>99</v>
-      </c>
-      <c r="E115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>152</v>
-      </c>
-      <c r="C118" t="s">
-        <v>156</v>
-      </c>
-      <c r="D118" t="s">
-        <v>157</v>
-      </c>
-      <c r="E118">
-        <v>2</v>
-      </c>
+      <c r="B118" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>153</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>153</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="C119" t="s">
         <v>154</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D119" t="s">
         <v>155</v>
       </c>
-      <c r="E120">
+      <c r="E119">
         <v>2</v>
       </c>
     </row>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ACCDC0-2911-457F-B1E7-F336290F0CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCD1F29-0FB5-45C2-AD52-F3D44985FEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="1680" yWindow="3435" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="163">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -632,6 +632,18 @@
   </si>
   <si>
     <t>gacha/normal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsedSoulStone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BefAccSoulStone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AftAccSoulStone</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1572,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2831,83 +2843,83 @@
         <v>132</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="D90" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E90">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>133</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>134</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>135</v>
       </c>
-      <c r="E92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" t="s">
-        <v>94</v>
-      </c>
-      <c r="D93" t="s">
-        <v>97</v>
-      </c>
-      <c r="E93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="E94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" t="s">
-        <v>140</v>
-      </c>
-      <c r="D95" t="s">
-        <v>40</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,13 +2927,13 @@
         <v>138</v>
       </c>
       <c r="C96" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D96" t="s">
         <v>40</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2929,13 +2941,13 @@
         <v>138</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D97" t="s">
         <v>40</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2943,35 +2955,35 @@
         <v>138</v>
       </c>
       <c r="C98" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99" t="s">
         <v>56</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>57</v>
       </c>
-      <c r="E98">
+      <c r="E99">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>13</v>
       </c>
-      <c r="B99" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>139</v>
-      </c>
-      <c r="C100" t="s">
-        <v>134</v>
-      </c>
-      <c r="D100" t="s">
-        <v>135</v>
-      </c>
-      <c r="E100">
-        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2979,53 +2991,53 @@
         <v>139</v>
       </c>
       <c r="C101" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" t="s">
         <v>95</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>97</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" t="s">
-        <v>147</v>
-      </c>
-      <c r="D104" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104">
-        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3033,13 +3045,13 @@
         <v>145</v>
       </c>
       <c r="C105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D105" t="s">
         <v>40</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3047,187 +3059,201 @@
         <v>145</v>
       </c>
       <c r="C106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="s">
         <v>56</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>57</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>146</v>
-      </c>
-      <c r="C108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D108" t="s">
-        <v>99</v>
-      </c>
-      <c r="E108">
-        <v>2</v>
-      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>146</v>
       </c>
       <c r="C109" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109" t="s">
+        <v>99</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" t="s">
         <v>150</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D110" t="s">
         <v>97</v>
       </c>
-      <c r="E109">
+      <c r="E110">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1" t="s">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>126</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>128</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D113" t="s">
         <v>129</v>
       </c>
-      <c r="E112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>127</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>98</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D115" t="s">
         <v>99</v>
       </c>
-      <c r="E114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1" t="s">
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>152</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>156</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>157</v>
       </c>
-      <c r="E117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>153</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>154</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>155</v>
       </c>
-      <c r="E119">
+      <c r="E120">
         <v>2</v>
       </c>
     </row>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCD1F29-0FB5-45C2-AD52-F3D44985FEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F7002-79FC-4E07-94DD-06D97E0B14C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="3435" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="2025" yWindow="3780" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="161">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -636,14 +636,6 @@
   </si>
   <si>
     <t>UsedSoulStone</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BefAccSoulStone</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AftAccSoulStone</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1584,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2853,73 +2845,73 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>132</v>
-      </c>
-      <c r="C91" t="s">
-        <v>161</v>
-      </c>
-      <c r="D91" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C92" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D92" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="E92">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D94" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="E94">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>138</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1" t="s">
-        <v>137</v>
+      <c r="C95" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2927,13 +2919,13 @@
         <v>138</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D96" t="s">
         <v>40</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2941,103 +2933,103 @@
         <v>138</v>
       </c>
       <c r="C97" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="D97" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
       <c r="B98" t="s">
-        <v>138</v>
-      </c>
-      <c r="C98" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" t="s">
-        <v>40</v>
-      </c>
-      <c r="E98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="D99" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="E99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>13</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" t="s">
-        <v>134</v>
-      </c>
-      <c r="D101" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>139</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="C100" t="s">
         <v>95</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D100" t="s">
         <v>97</v>
       </c>
-      <c r="E102">
+      <c r="E100">
         <v>3</v>
       </c>
     </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
+      <c r="B103" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" t="s">
+        <v>40</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1" t="s">
-        <v>159</v>
+      <c r="C104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3045,215 +3037,187 @@
         <v>145</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="D105" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>145</v>
-      </c>
-      <c r="C106" t="s">
-        <v>148</v>
-      </c>
-      <c r="D106" t="s">
-        <v>40</v>
-      </c>
-      <c r="E106">
-        <v>3</v>
-      </c>
+      <c r="A106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C107" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="D107" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>146</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="C108" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" t="s">
+        <v>97</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>146</v>
-      </c>
-      <c r="C109" t="s">
-        <v>149</v>
-      </c>
-      <c r="D109" t="s">
-        <v>99</v>
-      </c>
-      <c r="E109">
-        <v>2</v>
-      </c>
+      <c r="A109" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" t="s">
-        <v>150</v>
-      </c>
-      <c r="D110" t="s">
-        <v>97</v>
-      </c>
-      <c r="E110">
-        <v>3</v>
+      <c r="A110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
+      <c r="B111" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C113" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D113" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E113">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+      <c r="A114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" t="s">
-        <v>98</v>
-      </c>
-      <c r="D115" t="s">
-        <v>99</v>
-      </c>
-      <c r="E115">
-        <v>2</v>
+      <c r="A115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
+      <c r="B116" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" t="s">
+        <v>156</v>
+      </c>
+      <c r="D116" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>153</v>
-      </c>
-      <c r="C120" t="s">
-        <v>154</v>
-      </c>
-      <c r="D120" t="s">
-        <v>155</v>
-      </c>
-      <c r="E120">
         <v>2</v>
       </c>
     </row>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F7002-79FC-4E07-94DD-06D97E0B14C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B11ED-907F-4B48-B490-48A29CA4CFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="3780" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="179">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -636,6 +636,78 @@
   </si>
   <si>
     <t>UsedSoulStone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Stage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldFinishStageReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ObjValue&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardValueList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldFinishStageRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>World</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldStage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldPacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldStagePacket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>world/finish-stage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldRewardStarReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardValue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjValue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>world/reward-star</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldRewardStarRes</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1576,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3221,6 +3293,241 @@
         <v>2</v>
       </c>
     </row>
+    <row r="119" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>162</v>
+      </c>
+      <c r="C121" t="s">
+        <v>164</v>
+      </c>
+      <c r="D121" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" t="s">
+        <v>163</v>
+      </c>
+      <c r="D122" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123" t="s">
+        <v>40</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>162</v>
+      </c>
+      <c r="C124" t="s">
+        <v>167</v>
+      </c>
+      <c r="D124" t="s">
+        <v>166</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" t="s">
+        <v>169</v>
+      </c>
+      <c r="D126" t="s">
+        <v>171</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>168</v>
+      </c>
+      <c r="C127" t="s">
+        <v>170</v>
+      </c>
+      <c r="D127" t="s">
+        <v>172</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128" t="s">
+        <v>99</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>174</v>
+      </c>
+      <c r="C130" t="s">
+        <v>164</v>
+      </c>
+      <c r="D130" t="s">
+        <v>40</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>174</v>
+      </c>
+      <c r="C131" t="s">
+        <v>165</v>
+      </c>
+      <c r="D131" t="s">
+        <v>40</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" t="s">
+        <v>175</v>
+      </c>
+      <c r="D132" t="s">
+        <v>176</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>178</v>
+      </c>
+      <c r="C134" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" t="s">
+        <v>171</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>178</v>
+      </c>
+      <c r="C135" t="s">
+        <v>98</v>
+      </c>
+      <c r="D135" t="s">
+        <v>99</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3232,7 +3539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECFAC6-7668-4D7C-8368-FE9C0BD686E8}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B11ED-907F-4B48-B490-48A29CA4CFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D52D09-8AD1-4F76-8C9C-EE3A57208AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="825" yWindow="2550" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="183">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -708,6 +708,22 @@
   </si>
   <si>
     <t>WorldRewardStarRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsFirst</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BefRewardStar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AftRewardStar</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1648,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3366,54 +3382,54 @@
         <v>162</v>
       </c>
       <c r="C124" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D124" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E124">
         <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="B125" t="s">
+        <v>162</v>
+      </c>
+      <c r="C125" t="s">
+        <v>167</v>
+      </c>
+      <c r="D125" t="s">
+        <v>166</v>
+      </c>
+      <c r="E125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>168</v>
-      </c>
-      <c r="C126" t="s">
-        <v>169</v>
-      </c>
-      <c r="D126" t="s">
-        <v>171</v>
-      </c>
-      <c r="E126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>168</v>
       </c>
       <c r="C127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D127" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3421,42 +3437,42 @@
         <v>168</v>
       </c>
       <c r="C128" t="s">
+        <v>170</v>
+      </c>
+      <c r="D128" t="s">
+        <v>172</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" t="s">
         <v>98</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>99</v>
       </c>
-      <c r="E128">
+      <c r="E129">
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1" t="s">
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>174</v>
-      </c>
-      <c r="C130" t="s">
-        <v>164</v>
-      </c>
-      <c r="D130" t="s">
-        <v>40</v>
-      </c>
-      <c r="E130">
-        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3464,13 +3480,13 @@
         <v>174</v>
       </c>
       <c r="C131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D131" t="s">
         <v>40</v>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3478,53 +3494,81 @@
         <v>174</v>
       </c>
       <c r="C132" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D132" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="E132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" t="s">
+        <v>182</v>
+      </c>
+      <c r="D133" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" t="s">
-        <v>178</v>
-      </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C134" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D134" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E134">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B135" t="s">
         <v>178</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>178</v>
+      </c>
+      <c r="C136" t="s">
+        <v>169</v>
+      </c>
+      <c r="D136" t="s">
+        <v>171</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>178</v>
+      </c>
+      <c r="C137" t="s">
         <v>98</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D137" t="s">
         <v>99</v>
       </c>
-      <c r="E135">
+      <c r="E137">
         <v>3</v>
       </c>
     </row>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D52D09-8AD1-4F76-8C9C-EE3A57208AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01FF94F-515A-4D73-8BF6-E224EDD9D9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="2550" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="2265" yWindow="2265" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="185">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -643,10 +643,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>WorldFinishStageReq</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>StageNum</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -667,10 +663,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>WorldFinishStageRes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>World</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -687,10 +679,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>world/finish-stage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>WorldRewardStarReq</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -711,19 +699,39 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>IsFirst</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>BefRewardStar</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>AftRewardStar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldFinishStageFirstReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldFinishStageRepeatRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldFinishStageFirstRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldFinishStageRepeatReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalStar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>world/finish-stage-repeat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>world/finish-stage-first</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1664,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3325,22 +3333,22 @@
         <v>9</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D121" t="s">
         <v>40</v>
@@ -3351,10 +3359,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
+        <v>178</v>
+      </c>
+      <c r="C122" t="s">
         <v>162</v>
-      </c>
-      <c r="C122" t="s">
-        <v>163</v>
       </c>
       <c r="D122" t="s">
         <v>40</v>
@@ -3365,10 +3373,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C123" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D123" t="s">
         <v>40</v>
@@ -3379,188 +3387,188 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C124" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D124" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E124">
         <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>162</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="A125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" t="s">
         <v>167</v>
       </c>
-      <c r="D125" t="s">
-        <v>166</v>
-      </c>
-      <c r="E125">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" s="1" t="s">
+      <c r="D126" t="s">
+        <v>169</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" t="s">
         <v>168</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>168</v>
-      </c>
-      <c r="C127" t="s">
-        <v>169</v>
-      </c>
       <c r="D127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D128" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>168</v>
-      </c>
-      <c r="C129" t="s">
-        <v>98</v>
-      </c>
-      <c r="D129" t="s">
-        <v>99</v>
-      </c>
-      <c r="E129">
-        <v>4</v>
+      <c r="A129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1" t="s">
-        <v>177</v>
+      <c r="B130" t="s">
+        <v>181</v>
+      </c>
+      <c r="C130" t="s">
+        <v>163</v>
+      </c>
+      <c r="D130" t="s">
+        <v>40</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D131" t="s">
         <v>40</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C132" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D132" t="s">
         <v>40</v>
       </c>
       <c r="E132">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C133" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D133" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="E133">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>174</v>
-      </c>
-      <c r="C134" t="s">
-        <v>175</v>
-      </c>
-      <c r="D134" t="s">
-        <v>176</v>
-      </c>
-      <c r="E134">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A134" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B134" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>178</v>
-      </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="C135" t="s">
+        <v>167</v>
+      </c>
+      <c r="D135" t="s">
+        <v>169</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C137" t="s">
         <v>98</v>
@@ -3569,6 +3577,132 @@
         <v>99</v>
       </c>
       <c r="E137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>171</v>
+      </c>
+      <c r="C139" t="s">
+        <v>163</v>
+      </c>
+      <c r="D139" t="s">
+        <v>40</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>171</v>
+      </c>
+      <c r="C140" t="s">
+        <v>176</v>
+      </c>
+      <c r="D140" t="s">
+        <v>40</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>171</v>
+      </c>
+      <c r="C141" t="s">
+        <v>177</v>
+      </c>
+      <c r="D141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" t="s">
+        <v>182</v>
+      </c>
+      <c r="D142" t="s">
+        <v>40</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>171</v>
+      </c>
+      <c r="C143" t="s">
+        <v>172</v>
+      </c>
+      <c r="D143" t="s">
+        <v>173</v>
+      </c>
+      <c r="E143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>175</v>
+      </c>
+      <c r="C145" t="s">
+        <v>167</v>
+      </c>
+      <c r="D145" t="s">
+        <v>169</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" t="s">
+        <v>97</v>
+      </c>
+      <c r="E146">
         <v>3</v>
       </c>
     </row>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01FF94F-515A-4D73-8BF6-E224EDD9D9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909F08A0-593E-497B-948F-31AD358C2EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="2265" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="189">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -732,6 +732,22 @@
   </si>
   <si>
     <t>world/finish-stage-first</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthCheckReq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthCheckRes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>health-check</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Msg</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1672,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1804,126 +1820,126 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>38</v>
+      <c r="E17">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1941,13 +1957,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1958,133 +1974,134 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="E24">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
+      <c r="A27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2092,13 +2109,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2106,28 +2123,26 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2135,35 +2150,42 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2171,42 +2193,35 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2214,166 +2229,168 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>71</v>
       </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>77</v>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -2381,241 +2398,239 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>81</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C56" t="s">
         <v>115</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D56" t="s">
         <v>87</v>
       </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>82</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>73</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D58" t="s">
         <v>75</v>
       </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>82</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C59" t="s">
         <v>72</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D59" t="s">
         <v>74</v>
       </c>
-      <c r="E56">
+      <c r="E59">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="1">
-        <v>2</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" t="s">
         <v>41</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D63" t="s">
         <v>40</v>
       </c>
-      <c r="E60">
+      <c r="E63">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2623,222 +2638,224 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="E68">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="A69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C69" t="s">
-        <v>116</v>
-      </c>
-      <c r="D69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E69">
-        <v>3</v>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="B70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E72">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="A73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" t="s">
-        <v>74</v>
-      </c>
-      <c r="E73">
-        <v>4</v>
-      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>123</v>
+      <c r="B74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C78" t="s">
-        <v>63</v>
-      </c>
-      <c r="D78" t="s">
-        <v>60</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2846,84 +2863,83 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E84">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="A85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>136</v>
+      <c r="B86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C87" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" t="s">
-        <v>141</v>
-      </c>
-      <c r="D88" t="s">
-        <v>40</v>
-      </c>
-      <c r="E88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>132</v>
-      </c>
-      <c r="C89" t="s">
-        <v>142</v>
-      </c>
-      <c r="D89" t="s">
-        <v>40</v>
-      </c>
-      <c r="E89">
-        <v>4</v>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2931,97 +2947,97 @@
         <v>132</v>
       </c>
       <c r="C90" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D90" t="s">
         <v>40</v>
       </c>
       <c r="E90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" t="s">
+        <v>142</v>
+      </c>
+      <c r="D92" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" t="s">
+        <v>160</v>
+      </c>
+      <c r="D93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>133</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C95" t="s">
         <v>134</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D95" t="s">
         <v>135</v>
       </c>
-      <c r="E92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>138</v>
-      </c>
-      <c r="C94" t="s">
-        <v>140</v>
-      </c>
-      <c r="D94" t="s">
-        <v>40</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" t="s">
-        <v>143</v>
-      </c>
-      <c r="D95" t="s">
-        <v>40</v>
-      </c>
-      <c r="E95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" t="s">
-        <v>144</v>
-      </c>
-      <c r="D96" t="s">
-        <v>40</v>
-      </c>
-      <c r="E96">
-        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3029,360 +3045,360 @@
         <v>138</v>
       </c>
       <c r="C97" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99" t="s">
+        <v>144</v>
+      </c>
+      <c r="D99" t="s">
+        <v>40</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" t="s">
         <v>56</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D100" t="s">
         <v>57</v>
       </c>
-      <c r="E97">
+      <c r="E100">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>13</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B101" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="102" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>139</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C102" t="s">
         <v>134</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D102" t="s">
         <v>135</v>
       </c>
-      <c r="E99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>139</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C103" t="s">
         <v>95</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D103" t="s">
         <v>97</v>
       </c>
-      <c r="E100">
+      <c r="E103">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>145</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C106" t="s">
         <v>147</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D106" t="s">
         <v>40</v>
       </c>
-      <c r="E103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" t="s">
-        <v>148</v>
-      </c>
-      <c r="D104" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>145</v>
-      </c>
-      <c r="C105" t="s">
-        <v>56</v>
-      </c>
-      <c r="D105" t="s">
-        <v>57</v>
-      </c>
-      <c r="E105">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="E106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D107" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" t="s">
+        <v>57</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C108" t="s">
-        <v>150</v>
-      </c>
-      <c r="D108" t="s">
-        <v>97</v>
-      </c>
-      <c r="E108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1" t="s">
-        <v>130</v>
+      <c r="B110" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" t="s">
+        <v>149</v>
+      </c>
+      <c r="D110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" t="s">
+        <v>97</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" t="s">
         <v>128</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D114" t="s">
         <v>129</v>
       </c>
-      <c r="E111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>127</v>
-      </c>
-      <c r="C113" t="s">
-        <v>98</v>
-      </c>
-      <c r="D113" t="s">
-        <v>99</v>
-      </c>
-      <c r="E113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
+      <c r="E114">
+        <v>2</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" t="s">
+        <v>98</v>
+      </c>
+      <c r="D116" t="s">
+        <v>99</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119" t="s">
         <v>156</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D119" t="s">
         <v>157</v>
       </c>
-      <c r="E116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>153</v>
-      </c>
-      <c r="C118" t="s">
-        <v>154</v>
-      </c>
-      <c r="D118" t="s">
-        <v>155</v>
-      </c>
-      <c r="E118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
+      <c r="E119">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
+        <v>153</v>
+      </c>
+      <c r="C121" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" t="s">
+        <v>155</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C121" t="s">
-        <v>163</v>
-      </c>
-      <c r="D121" t="s">
-        <v>40</v>
-      </c>
-      <c r="E121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>178</v>
-      </c>
-      <c r="C122" t="s">
-        <v>162</v>
-      </c>
-      <c r="D122" t="s">
-        <v>40</v>
-      </c>
-      <c r="E122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>178</v>
-      </c>
-      <c r="C123" t="s">
-        <v>164</v>
-      </c>
-      <c r="D123" t="s">
-        <v>40</v>
-      </c>
-      <c r="E123">
-        <v>4</v>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3390,125 +3406,125 @@
         <v>178</v>
       </c>
       <c r="C124" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D124" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="E124">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>178</v>
+      </c>
+      <c r="C125" t="s">
+        <v>162</v>
+      </c>
+      <c r="D125" t="s">
+        <v>40</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C126" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D126" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
+        <v>178</v>
+      </c>
+      <c r="C127" t="s">
+        <v>166</v>
+      </c>
+      <c r="D127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C127" t="s">
-        <v>168</v>
-      </c>
-      <c r="D127" t="s">
-        <v>170</v>
-      </c>
-      <c r="E127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>180</v>
       </c>
-      <c r="C128" t="s">
-        <v>98</v>
-      </c>
-      <c r="D128" t="s">
-        <v>99</v>
-      </c>
-      <c r="E128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1" t="s">
-        <v>183</v>
+      <c r="C129" t="s">
+        <v>167</v>
+      </c>
+      <c r="D129" t="s">
+        <v>169</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C130" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D130" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" t="s">
+        <v>98</v>
+      </c>
+      <c r="D131" t="s">
+        <v>99</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C131" t="s">
-        <v>162</v>
-      </c>
-      <c r="D131" t="s">
-        <v>40</v>
-      </c>
-      <c r="E131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>181</v>
-      </c>
-      <c r="C132" t="s">
-        <v>164</v>
-      </c>
-      <c r="D132" t="s">
-        <v>40</v>
-      </c>
-      <c r="E132">
-        <v>4</v>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3516,125 +3532,125 @@
         <v>181</v>
       </c>
       <c r="C133" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D133" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="E133">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>181</v>
+      </c>
+      <c r="C134" t="s">
+        <v>162</v>
+      </c>
+      <c r="D134" t="s">
+        <v>40</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C135" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D135" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="E135">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
+        <v>181</v>
+      </c>
+      <c r="C136" t="s">
+        <v>166</v>
+      </c>
+      <c r="D136" t="s">
+        <v>165</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C136" t="s">
-        <v>168</v>
-      </c>
-      <c r="D136" t="s">
-        <v>170</v>
-      </c>
-      <c r="E136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>179</v>
       </c>
-      <c r="C137" t="s">
-        <v>98</v>
-      </c>
-      <c r="D137" t="s">
-        <v>99</v>
-      </c>
-      <c r="E137">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1" t="s">
-        <v>174</v>
+      <c r="C138" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138" t="s">
+        <v>169</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C139" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D139" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" t="s">
+        <v>98</v>
+      </c>
+      <c r="D140" t="s">
+        <v>99</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C140" t="s">
-        <v>176</v>
-      </c>
-      <c r="D140" t="s">
-        <v>40</v>
-      </c>
-      <c r="E140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>171</v>
-      </c>
-      <c r="C141" t="s">
-        <v>177</v>
-      </c>
-      <c r="D141" t="s">
-        <v>40</v>
-      </c>
-      <c r="E141">
-        <v>4</v>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3642,13 +3658,13 @@
         <v>171</v>
       </c>
       <c r="C142" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D142" t="s">
         <v>40</v>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3656,53 +3672,95 @@
         <v>171</v>
       </c>
       <c r="C143" t="s">
+        <v>176</v>
+      </c>
+      <c r="D143" t="s">
+        <v>40</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>171</v>
+      </c>
+      <c r="C144" t="s">
+        <v>177</v>
+      </c>
+      <c r="D144" t="s">
+        <v>40</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>171</v>
+      </c>
+      <c r="C145" t="s">
+        <v>182</v>
+      </c>
+      <c r="D145" t="s">
+        <v>40</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>171</v>
+      </c>
+      <c r="C146" t="s">
         <v>172</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D146" t="s">
         <v>173</v>
       </c>
-      <c r="E143">
+      <c r="E146">
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B147" t="s">
         <v>175</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>175</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C148" t="s">
         <v>167</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D148" t="s">
         <v>169</v>
       </c>
-      <c r="E145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>175</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C149" t="s">
         <v>95</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D149" t="s">
         <v>97</v>
       </c>
-      <c r="E146">
+      <c r="E149">
         <v>3</v>
       </c>
     </row>

--- a/Data/Excel/Packet/Packet.xlsx
+++ b/Data/Excel/Packet/Packet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909F08A0-593E-497B-948F-31AD358C2EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C8F9BB-BA2C-46E4-A710-2E27255AA33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="193">
   <si>
     <t>ClassInfo</t>
   </si>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Obj</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -511,10 +507,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;ObjPacket&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>cheat/reward</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -748,6 +740,30 @@
   </si>
   <si>
     <t>Msg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaResult</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultObjValue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;GachaResultPacket&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaResultList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoulStoneNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoulStoneAmount</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1688,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1820,14 +1836,14 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1835,7 +1851,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1845,10 +1861,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" t="s">
         <v>186</v>
-      </c>
-      <c r="C11" t="s">
-        <v>188</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -2069,7 +2085,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2083,19 +2099,19 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
@@ -2109,13 +2125,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
         <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>57</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2126,7 +2142,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2136,13 +2152,13 @@
     </row>
     <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2150,13 +2166,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -2167,19 +2183,19 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
@@ -2193,13 +2209,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
         <v>56</v>
-      </c>
-      <c r="D36" t="s">
-        <v>57</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -2210,18 +2226,18 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2229,13 +2245,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -2246,25 +2262,25 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
         <v>85</v>
-      </c>
-      <c r="D41" t="s">
-        <v>86</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2272,7 +2288,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
         <v>41</v>
@@ -2286,13 +2302,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -2300,13 +2316,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -2317,7 +2333,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2327,13 +2343,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2341,13 +2357,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2355,13 +2371,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
         <v>98</v>
-      </c>
-      <c r="D48" t="s">
-        <v>99</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -2372,19 +2388,19 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
@@ -2398,13 +2414,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2415,7 +2431,7 @@
         <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2425,13 +2441,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -2439,13 +2455,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -2456,25 +2472,25 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -2485,7 +2501,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2495,13 +2511,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -2509,13 +2525,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -2523,13 +2539,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E60">
         <v>4</v>
@@ -2540,26 +2556,26 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -2569,7 +2585,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
         <v>41</v>
@@ -2583,7 +2599,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
         <v>42</v>
@@ -2597,13 +2613,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
         <v>43</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E65">
         <v>5</v>
@@ -2614,7 +2630,7 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2624,13 +2640,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2638,7 +2654,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
         <v>47</v>
@@ -2652,28 +2668,28 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
         <v>108</v>
       </c>
-      <c r="C70" t="s">
-        <v>109</v>
-      </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2681,13 +2697,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -2695,13 +2711,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -2712,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2722,13 +2738,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2736,13 +2752,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -2750,13 +2766,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -2767,25 +2783,25 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
         <v>85</v>
-      </c>
-      <c r="D78" t="s">
-        <v>86</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2793,7 +2809,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
         <v>41</v>
@@ -2810,7 +2826,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2820,13 +2836,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2837,25 +2853,25 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" t="s">
         <v>85</v>
-      </c>
-      <c r="D83" t="s">
-        <v>86</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2863,7 +2879,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
         <v>41</v>
@@ -2880,7 +2896,7 @@
         <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2890,13 +2906,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -2904,13 +2920,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" t="s">
         <v>98</v>
-      </c>
-      <c r="D87" t="s">
-        <v>99</v>
       </c>
       <c r="E87">
         <v>3</v>
@@ -2918,7 +2934,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2932,22 +2948,22 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D90" t="s">
         <v>40</v>
@@ -2958,10 +2974,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D91" t="s">
         <v>40</v>
@@ -2972,10 +2988,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D92" t="s">
         <v>40</v>
@@ -2986,10 +3002,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D93" t="s">
         <v>40</v>
@@ -3003,7 +3019,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3013,13 +3029,13 @@
     </row>
     <row r="95" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" t="s">
         <v>133</v>
-      </c>
-      <c r="C95" t="s">
-        <v>134</v>
-      </c>
-      <c r="D95" t="s">
-        <v>135</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -3030,22 +3046,22 @@
         <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" t="s">
         <v>138</v>
-      </c>
-      <c r="C97" t="s">
-        <v>140</v>
       </c>
       <c r="D97" t="s">
         <v>40</v>
@@ -3056,10 +3072,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
         <v>40</v>
@@ -3070,10 +3086,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D99" t="s">
         <v>40</v>
@@ -3084,13 +3100,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D100" t="s">
         <v>56</v>
-      </c>
-      <c r="D100" t="s">
-        <v>57</v>
       </c>
       <c r="E100">
         <v>5</v>
@@ -3101,18 +3117,18 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -3120,13 +3136,13 @@
     </row>
     <row r="103" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -3134,7 +3150,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3145,83 +3161,83 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>145</v>
+      <c r="B106" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="D106" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>145</v>
+      <c r="B107" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="D107" t="s">
         <v>40</v>
       </c>
       <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" t="s">
+        <v>192</v>
+      </c>
+      <c r="D108" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108">
         <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>145</v>
-      </c>
-      <c r="C108" t="s">
-        <v>56</v>
-      </c>
-      <c r="D108" t="s">
-        <v>57</v>
-      </c>
-      <c r="E108">
-        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="G109" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C110" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D110" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -3229,88 +3245,90 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" t="s">
         <v>146</v>
       </c>
-      <c r="C111" t="s">
-        <v>150</v>
-      </c>
       <c r="D111" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E111">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
+    <row r="112" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C114" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D114" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="E114">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="B115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" t="s">
+        <v>189</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C116" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="D116" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3324,25 +3342,25 @@
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D119" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -3353,7 +3371,7 @@
         <v>13</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3363,21 +3381,21 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="D121" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="E121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3391,94 +3409,92 @@
         <v>9</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D124" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>178</v>
-      </c>
-      <c r="C125" t="s">
-        <v>162</v>
-      </c>
-      <c r="D125" t="s">
-        <v>40</v>
-      </c>
-      <c r="E125">
-        <v>3</v>
-      </c>
+      <c r="A125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C126" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D126" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="E126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>178</v>
-      </c>
-      <c r="C127" t="s">
-        <v>166</v>
-      </c>
-      <c r="D127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E127">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G128" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C129" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D129" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -3486,13 +3502,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D130" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="E130">
         <v>3</v>
@@ -3500,92 +3516,90 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C131" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="D131" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E131">
         <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1" t="s">
-        <v>183</v>
+      <c r="B132" t="s">
+        <v>176</v>
+      </c>
+      <c r="C132" t="s">
+        <v>164</v>
+      </c>
+      <c r="D132" t="s">
+        <v>163</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>181</v>
-      </c>
-      <c r="C133" t="s">
-        <v>163</v>
-      </c>
-      <c r="D133" t="s">
-        <v>40</v>
-      </c>
-      <c r="E133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C134" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D134" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C135" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D135" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="E135">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C136" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="D136" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>179</v>
@@ -3594,17 +3608,19 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G137" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>179</v>
       </c>
       <c r="C138" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D138" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -3615,10 +3631,10 @@
         <v>179</v>
       </c>
       <c r="C139" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D139" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="E139">
         <v>3</v>
@@ -3629,138 +3645,207 @@
         <v>179</v>
       </c>
       <c r="C140" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="D140" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E140">
         <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1" t="s">
-        <v>174</v>
+      <c r="B141" t="s">
+        <v>179</v>
+      </c>
+      <c r="C141" t="s">
+        <v>164</v>
+      </c>
+      <c r="D141" t="s">
+        <v>163</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>171</v>
-      </c>
-      <c r="C142" t="s">
-        <v>163</v>
-      </c>
-      <c r="D142" t="s">
-        <v>40</v>
-      </c>
-      <c r="E142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D143" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C144" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D144" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="E144">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C145" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="D145" t="s">
+        <v>98</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>169</v>
+      </c>
+      <c r="C147" t="s">
+        <v>161</v>
+      </c>
+      <c r="D147" t="s">
         <v>40</v>
       </c>
-      <c r="E145">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>171</v>
-      </c>
-      <c r="C146" t="s">
-        <v>172</v>
-      </c>
-      <c r="D146" t="s">
-        <v>173</v>
-      </c>
-      <c r="E146">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147" t="s">
-        <v>175</v>
-      </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
+      <c r="E147">
+        <v>2</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C148" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D148" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
+        <v>169</v>
+      </c>
+      <c r="C149" t="s">
         <v>175</v>
       </c>
-      <c r="C149" t="s">
-        <v>95</v>
-      </c>
       <c r="D149" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>169</v>
+      </c>
+      <c r="C150" t="s">
+        <v>180</v>
+      </c>
+      <c r="D150" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>169</v>
+      </c>
+      <c r="C151" t="s">
+        <v>170</v>
+      </c>
+      <c r="D151" t="s">
+        <v>171</v>
+      </c>
+      <c r="E151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" t="s">
+        <v>173</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>173</v>
+      </c>
+      <c r="C153" t="s">
+        <v>165</v>
+      </c>
+      <c r="D153" t="s">
+        <v>167</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>173</v>
+      </c>
+      <c r="C154" t="s">
+        <v>94</v>
+      </c>
+      <c r="D154" t="s">
+        <v>96</v>
+      </c>
+      <c r="E154">
         <v>3</v>
       </c>
     </row>
@@ -3773,10 +3858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECFAC6-7668-4D7C-8368-FE9C0BD686E8}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3821,7 +3906,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3831,10 +3916,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -3845,10 +3930,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -3859,7 +3944,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -3873,10 +3958,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -3890,7 +3975,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3900,10 +3985,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -3914,10 +3999,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -3928,7 +4013,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -3941,86 +4026,86 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>52</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4028,7 +4113,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4038,10 +4123,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -4052,10 +4137,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
@@ -4065,71 +4150,66 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
         <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
         <v>101</v>
@@ -4138,120 +4218,70 @@
         <v>40</v>
       </c>
       <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28">
         <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
       <c r="B31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
         <v>4</v>
       </c>
     </row>
